--- a/Output logs/stats_summary_1-8 comb table.xlsx
+++ b/Output logs/stats_summary_1-8 comb table.xlsx
@@ -1584,7 +1584,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I94" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I94" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:I94">
     <filterColumn colId="1">
       <filters>
@@ -1599,15 +1599,15 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" name="load" dataDxfId="10"/>
-    <tableColumn id="2" name="var" dataDxfId="9"/>
-    <tableColumn id="3" name="mm_sig" dataDxfId="8"/>
-    <tableColumn id="4" name="mm_session" dataDxfId="7"/>
-    <tableColumn id="5" name="mm_feedback" dataDxfId="6"/>
-    <tableColumn id="6" name="mm_interaction" dataDxfId="5"/>
-    <tableColumn id="7" name="spher" dataDxfId="4"/>
-    <tableColumn id="8" name="spher_p" dataDxfId="3"/>
-    <tableColumn id="9" name="norm_res" dataDxfId="2"/>
+    <tableColumn id="1" name="load" dataDxfId="8"/>
+    <tableColumn id="2" name="var" dataDxfId="7"/>
+    <tableColumn id="3" name="mm_sig" dataDxfId="6"/>
+    <tableColumn id="4" name="mm_session" dataDxfId="5"/>
+    <tableColumn id="5" name="mm_feedback" dataDxfId="4"/>
+    <tableColumn id="6" name="mm_interaction" dataDxfId="3"/>
+    <tableColumn id="7" name="spher" dataDxfId="2"/>
+    <tableColumn id="8" name="spher_p" dataDxfId="1"/>
+    <tableColumn id="9" name="norm_res" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1879,7 +1879,7 @@
   <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
